--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Efnb2-Ephb4.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H2">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I2">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J2">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>48.3439545</v>
+        <v>35.785616</v>
       </c>
       <c r="N2">
-        <v>96.68790899999999</v>
+        <v>71.57123199999999</v>
       </c>
       <c r="O2">
-        <v>0.5906069762936997</v>
+        <v>0.8147315746812694</v>
       </c>
       <c r="P2">
-        <v>0.5029826098832294</v>
+        <v>0.7806715551186352</v>
       </c>
       <c r="Q2">
-        <v>1957.820706537012</v>
+        <v>1897.245806651112</v>
       </c>
       <c r="R2">
-        <v>7831.282826148048</v>
+        <v>7588.983226604448</v>
       </c>
       <c r="S2">
-        <v>0.2562216919324508</v>
+        <v>0.6063575498263604</v>
       </c>
       <c r="T2">
-        <v>0.1785098349852711</v>
+        <v>0.549717964852837</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H3">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I3">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J3">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>11.269592</v>
       </c>
       <c r="O3">
-        <v>0.04589267140722955</v>
+        <v>0.08552498147277421</v>
       </c>
       <c r="P3">
-        <v>0.05862582876292385</v>
+        <v>0.1229243882820479</v>
       </c>
       <c r="Q3">
-        <v>152.1309872145707</v>
+        <v>199.159965693748</v>
       </c>
       <c r="R3">
-        <v>912.785923287424</v>
+        <v>1194.959794162488</v>
       </c>
       <c r="S3">
-        <v>0.01990951408845693</v>
+        <v>0.06365129304711659</v>
       </c>
       <c r="T3">
-        <v>0.02080645893657015</v>
+        <v>0.08655848175090536</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H4">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I4">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J4">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.03548533333333333</v>
+        <v>4.30492</v>
       </c>
       <c r="N4">
-        <v>0.106456</v>
+        <v>8.60984</v>
       </c>
       <c r="O4">
-        <v>0.0004335161581118491</v>
+        <v>0.09801016840053531</v>
       </c>
       <c r="P4">
-        <v>0.0005537974424261163</v>
+        <v>0.09391283333117181</v>
       </c>
       <c r="Q4">
-        <v>1.437075661205333</v>
+        <v>228.23391996294</v>
       </c>
       <c r="R4">
-        <v>8.622453967232</v>
+        <v>912.93567985176</v>
       </c>
       <c r="S4">
-        <v>0.000188071336726367</v>
+        <v>0.07294329496517526</v>
       </c>
       <c r="T4">
-        <v>0.0001965441510705544</v>
+        <v>0.06612969471461035</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H5">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I5">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J5">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>4.9910045</v>
+        <v>0.06227666666666667</v>
       </c>
       <c r="N5">
-        <v>9.982009</v>
+        <v>0.18683</v>
       </c>
       <c r="O5">
-        <v>0.06097395438375338</v>
+        <v>0.001417853662187452</v>
       </c>
       <c r="P5">
-        <v>0.05192766076571049</v>
+        <v>0.002037870001215217</v>
       </c>
       <c r="Q5">
-        <v>202.124382615812</v>
+        <v>3.301721694145</v>
       </c>
       <c r="R5">
-        <v>808.497530463248</v>
+        <v>19.81033016487</v>
       </c>
       <c r="S5">
-        <v>0.02645219305409689</v>
+        <v>0.001055226407485985</v>
       </c>
       <c r="T5">
-        <v>0.01842926171266659</v>
+        <v>0.00143498727775785</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -791,46 +791,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.497736</v>
+        <v>53.0169945</v>
       </c>
       <c r="H6">
-        <v>80.99547200000001</v>
+        <v>106.033989</v>
       </c>
       <c r="I6">
-        <v>0.4338277436889532</v>
+        <v>0.7442421144210264</v>
       </c>
       <c r="J6">
-        <v>0.3549025979779167</v>
+        <v>0.7041603619966643</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>24.727721</v>
+        <v>0.01385433333333333</v>
       </c>
       <c r="N6">
-        <v>74.18316300000001</v>
+        <v>0.041563</v>
       </c>
       <c r="O6">
-        <v>0.3020928817572056</v>
+        <v>0.000315421783233405</v>
       </c>
       <c r="P6">
-        <v>0.3859101031457101</v>
+        <v>0.0004533532669298726</v>
       </c>
       <c r="Q6">
-        <v>1001.416716939656</v>
+        <v>0.7345151141345001</v>
       </c>
       <c r="R6">
-        <v>6008.500301637937</v>
+        <v>4.407090684807001</v>
       </c>
       <c r="S6">
-        <v>0.1310562732772222</v>
+        <v>0.00023475017488808</v>
       </c>
       <c r="T6">
-        <v>0.1369604981923383</v>
+        <v>0.0003192334005537094</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -859,10 +859,10 @@
         <v>19.394515</v>
       </c>
       <c r="I7">
-        <v>0.06925390168635236</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J7">
-        <v>0.08498208097388053</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>48.3439545</v>
+        <v>35.785616</v>
       </c>
       <c r="N7">
-        <v>96.68790899999999</v>
+        <v>71.57123199999999</v>
       </c>
       <c r="O7">
-        <v>0.5906069762936997</v>
+        <v>0.8147315746812694</v>
       </c>
       <c r="P7">
-        <v>0.5029826098832294</v>
+        <v>0.7806715551186352</v>
       </c>
       <c r="Q7">
-        <v>312.5358502365224</v>
+        <v>231.3482220987466</v>
       </c>
       <c r="R7">
-        <v>1875.215101419135</v>
+        <v>1388.08933259248</v>
       </c>
       <c r="S7">
-        <v>0.04090183747151772</v>
+        <v>0.07393862230012926</v>
       </c>
       <c r="T7">
-        <v>0.04274450888155036</v>
+        <v>0.1005480734588587</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>19.394515</v>
       </c>
       <c r="I8">
-        <v>0.06925390168635236</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J8">
-        <v>0.08498208097388053</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -939,10 +939,10 @@
         <v>11.269592</v>
       </c>
       <c r="O8">
-        <v>0.04589267140722955</v>
+        <v>0.08552498147277421</v>
       </c>
       <c r="P8">
-        <v>0.05862582876292385</v>
+        <v>0.1229243882820479</v>
       </c>
       <c r="Q8">
         <v>24.28536345420888</v>
@@ -951,10 +951,10 @@
         <v>218.56827108788</v>
       </c>
       <c r="S8">
-        <v>0.003178246553760349</v>
+        <v>0.007761573871510818</v>
       </c>
       <c r="T8">
-        <v>0.004982144927091649</v>
+        <v>0.01583227971075539</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -983,40 +983,40 @@
         <v>19.394515</v>
       </c>
       <c r="I9">
-        <v>0.06925390168635236</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J9">
-        <v>0.08498208097388053</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.03548533333333333</v>
+        <v>4.30492</v>
       </c>
       <c r="N9">
-        <v>0.106456</v>
+        <v>8.60984</v>
       </c>
       <c r="O9">
-        <v>0.0004335161581118491</v>
+        <v>0.09801016840053531</v>
       </c>
       <c r="P9">
-        <v>0.0005537974424261163</v>
+        <v>0.09391283333117181</v>
       </c>
       <c r="Q9">
-        <v>0.2294069432044444</v>
+        <v>27.83061183793333</v>
       </c>
       <c r="R9">
-        <v>2.06466248884</v>
+        <v>166.9836710276</v>
       </c>
       <c r="S9">
-        <v>3.002268539332318E-05</v>
+        <v>0.008894631125317852</v>
       </c>
       <c r="T9">
-        <v>4.706285909538416E-05</v>
+        <v>0.01209568147141886</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1045,40 +1045,40 @@
         <v>19.394515</v>
       </c>
       <c r="I10">
-        <v>0.06925390168635236</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J10">
-        <v>0.08498208097388053</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>4.9910045</v>
+        <v>0.06227666666666667</v>
       </c>
       <c r="N10">
-        <v>9.982009</v>
+        <v>0.18683</v>
       </c>
       <c r="O10">
-        <v>0.06097395438375338</v>
+        <v>0.001417853662187452</v>
       </c>
       <c r="P10">
-        <v>0.05192766076571049</v>
+        <v>0.002037870001215217</v>
       </c>
       <c r="Q10">
-        <v>32.26603721343916</v>
+        <v>0.4026085819388889</v>
       </c>
       <c r="R10">
-        <v>193.596223280635</v>
+        <v>3.623477237449999</v>
       </c>
       <c r="S10">
-        <v>0.00422268424232059</v>
+        <v>0.0001286732338148858</v>
       </c>
       <c r="T10">
-        <v>0.004412920671975808</v>
+        <v>0.0002624713315584477</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,7 +1092,7 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E11">
         <v>3</v>
@@ -1107,40 +1107,40 @@
         <v>19.394515</v>
       </c>
       <c r="I11">
-        <v>0.06925390168635236</v>
+        <v>0.09075212572810222</v>
       </c>
       <c r="J11">
-        <v>0.08498208097388053</v>
+        <v>0.1287968964663749</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M11">
-        <v>24.727721</v>
+        <v>0.01385433333333333</v>
       </c>
       <c r="N11">
-        <v>74.18316300000001</v>
+        <v>0.041563</v>
       </c>
       <c r="O11">
-        <v>0.3020928817572056</v>
+        <v>0.000315421783233405</v>
       </c>
       <c r="P11">
-        <v>0.3859101031457101</v>
+        <v>0.0004533532669298726</v>
       </c>
       <c r="Q11">
-        <v>159.8607186167717</v>
+        <v>0.08956602521611111</v>
       </c>
       <c r="R11">
-        <v>1438.746467550945</v>
+        <v>0.806094226945</v>
       </c>
       <c r="S11">
-        <v>0.02092111073336038</v>
+        <v>2.862519732938017E-05</v>
       </c>
       <c r="T11">
-        <v>0.03279544363416732</v>
+        <v>5.839049378345962E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.7642823333333334</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H12">
-        <v>2.292847</v>
+        <v>2.036719</v>
       </c>
       <c r="I12">
-        <v>0.008187294228282994</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J12">
-        <v>0.01004670183372562</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>48.3439545</v>
+        <v>35.785616</v>
       </c>
       <c r="N12">
-        <v>96.68790899999999</v>
+        <v>71.57123199999999</v>
       </c>
       <c r="O12">
-        <v>0.5906069762936997</v>
+        <v>0.8147315746812694</v>
       </c>
       <c r="P12">
-        <v>0.5029826098832294</v>
+        <v>0.7806715551186352</v>
       </c>
       <c r="Q12">
-        <v>36.9484303478205</v>
+        <v>24.29508134463466</v>
       </c>
       <c r="R12">
-        <v>221.690582086923</v>
+        <v>145.770488067808</v>
       </c>
       <c r="S12">
-        <v>0.004835473088193079</v>
+        <v>0.007764679697971151</v>
       </c>
       <c r="T12">
-        <v>0.00505331630904594</v>
+        <v>0.01055907670942291</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,16 +1225,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.7642823333333334</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H13">
-        <v>2.292847</v>
+        <v>2.036719</v>
       </c>
       <c r="I13">
-        <v>0.008187294228282994</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J13">
-        <v>0.01004670183372562</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1249,22 +1249,22 @@
         <v>11.269592</v>
       </c>
       <c r="O13">
-        <v>0.04589267140722955</v>
+        <v>0.08552498147277421</v>
       </c>
       <c r="P13">
-        <v>0.05862582876292385</v>
+        <v>0.1229243882820479</v>
       </c>
       <c r="Q13">
-        <v>2.871050023158222</v>
+        <v>2.550332460960889</v>
       </c>
       <c r="R13">
-        <v>25.839450208424</v>
+        <v>22.952992148648</v>
       </c>
       <c r="S13">
-        <v>0.0003757368037328985</v>
+        <v>0.0008150832838052222</v>
       </c>
       <c r="T13">
-        <v>0.0005889962213361515</v>
+        <v>0.001662630125074538</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.7642823333333334</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H14">
-        <v>2.292847</v>
+        <v>2.036719</v>
       </c>
       <c r="I14">
-        <v>0.008187294228282994</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J14">
-        <v>0.01004670183372562</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.03548533333333333</v>
+        <v>4.30492</v>
       </c>
       <c r="N14">
-        <v>0.106456</v>
+        <v>8.60984</v>
       </c>
       <c r="O14">
-        <v>0.0004335161581118491</v>
+        <v>0.09801016840053531</v>
       </c>
       <c r="P14">
-        <v>0.0005537974424261163</v>
+        <v>0.09391283333117181</v>
       </c>
       <c r="Q14">
-        <v>0.02712081335911111</v>
+        <v>2.922637452493333</v>
       </c>
       <c r="R14">
-        <v>0.244087320232</v>
+        <v>17.53582471496</v>
       </c>
       <c r="S14">
-        <v>3.54932433917656E-06</v>
+        <v>0.0009340715254249073</v>
       </c>
       <c r="T14">
-        <v>5.563837780335023E-06</v>
+        <v>0.001270230488918477</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,46 +1349,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.7642823333333334</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H15">
-        <v>2.292847</v>
+        <v>2.036719</v>
       </c>
       <c r="I15">
-        <v>0.008187294228282994</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J15">
-        <v>0.01004670183372562</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M15">
-        <v>4.9910045</v>
+        <v>0.06227666666666667</v>
       </c>
       <c r="N15">
-        <v>9.982009</v>
+        <v>0.18683</v>
       </c>
       <c r="O15">
-        <v>0.06097395438375338</v>
+        <v>0.001417853662187452</v>
       </c>
       <c r="P15">
-        <v>0.05192766076571049</v>
+        <v>0.002037870001215217</v>
       </c>
       <c r="Q15">
-        <v>3.814536564937167</v>
+        <v>0.04228002341888889</v>
       </c>
       <c r="R15">
-        <v>22.887219389623</v>
+        <v>0.3805202107699999</v>
       </c>
       <c r="S15">
-        <v>0.0004992117048016946</v>
+        <v>1.351264623540317E-05</v>
       </c>
       <c r="T15">
-        <v>0.0005217017246359457</v>
+        <v>2.756348111517044E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,7 +1402,7 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.7642823333333334</v>
+        <v>0.6789063333333333</v>
       </c>
       <c r="H16">
-        <v>2.292847</v>
+        <v>2.036719</v>
       </c>
       <c r="I16">
-        <v>0.008187294228282994</v>
+        <v>0.00953035323444874</v>
       </c>
       <c r="J16">
-        <v>0.01004670183372562</v>
+        <v>0.01352563269430035</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>24.727721</v>
+        <v>0.01385433333333333</v>
       </c>
       <c r="N16">
-        <v>74.18316300000001</v>
+        <v>0.041563</v>
       </c>
       <c r="O16">
-        <v>0.3020928817572056</v>
+        <v>0.000315421783233405</v>
       </c>
       <c r="P16">
-        <v>0.3859101031457101</v>
+        <v>0.0004533532669298726</v>
       </c>
       <c r="Q16">
-        <v>18.89896030389567</v>
+        <v>0.009405794644111112</v>
       </c>
       <c r="R16">
-        <v>170.090642735061</v>
+        <v>0.08465215179699999</v>
       </c>
       <c r="S16">
-        <v>0.002473323307216146</v>
+        <v>3.00608101205407E-06</v>
       </c>
       <c r="T16">
-        <v>0.00387712374092725</v>
+        <v>6.131889769254559E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>11.332808</v>
+        <v>10.1095025</v>
       </c>
       <c r="H17">
-        <v>22.665616</v>
+        <v>20.219005</v>
       </c>
       <c r="I17">
-        <v>0.1214015154896589</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J17">
-        <v>0.09931525558823628</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>48.3439545</v>
+        <v>35.785616</v>
       </c>
       <c r="N17">
-        <v>96.68790899999999</v>
+        <v>71.57123199999999</v>
       </c>
       <c r="O17">
-        <v>0.5906069762936997</v>
+        <v>0.8147315746812694</v>
       </c>
       <c r="P17">
-        <v>0.5029826098832294</v>
+        <v>0.7806715551186352</v>
       </c>
       <c r="Q17">
-        <v>547.8727543092359</v>
+        <v>361.77477441604</v>
       </c>
       <c r="R17">
-        <v>2191.491017236944</v>
+        <v>1447.09909766416</v>
       </c>
       <c r="S17">
-        <v>0.07170058198082022</v>
+        <v>0.1156227964952533</v>
       </c>
       <c r="T17">
-        <v>0.04995384645699107</v>
+        <v>0.1048225232755257</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>11.332808</v>
+        <v>10.1095025</v>
       </c>
       <c r="H18">
-        <v>22.665616</v>
+        <v>20.219005</v>
       </c>
       <c r="I18">
-        <v>0.1214015154896589</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J18">
-        <v>0.09931525558823628</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1559,22 +1559,22 @@
         <v>11.269592</v>
       </c>
       <c r="O18">
-        <v>0.04589267140722955</v>
+        <v>0.08552498147277421</v>
       </c>
       <c r="P18">
-        <v>0.05862582876292385</v>
+        <v>0.1229243882820479</v>
       </c>
       <c r="Q18">
-        <v>42.57204079144533</v>
+        <v>37.97665616599333</v>
       </c>
       <c r="R18">
-        <v>255.432244748672</v>
+        <v>227.85993699596</v>
       </c>
       <c r="S18">
-        <v>0.005571439858706607</v>
+        <v>0.01213729507409285</v>
       </c>
       <c r="T18">
-        <v>0.005822439167661957</v>
+        <v>0.01650533373137518</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>11.332808</v>
+        <v>10.1095025</v>
       </c>
       <c r="H19">
-        <v>22.665616</v>
+        <v>20.219005</v>
       </c>
       <c r="I19">
-        <v>0.1214015154896589</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J19">
-        <v>0.09931525558823628</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.03548533333333333</v>
+        <v>4.30492</v>
       </c>
       <c r="N19">
-        <v>0.106456</v>
+        <v>8.60984</v>
       </c>
       <c r="O19">
-        <v>0.0004335161581118491</v>
+        <v>0.09801016840053531</v>
       </c>
       <c r="P19">
-        <v>0.0005537974424261163</v>
+        <v>0.09391283333117181</v>
       </c>
       <c r="Q19">
-        <v>0.4021484694826667</v>
+        <v>43.5205995023</v>
       </c>
       <c r="R19">
-        <v>2.412890816896</v>
+        <v>174.0823980092</v>
       </c>
       <c r="S19">
-        <v>5.262951858403308E-05</v>
+        <v>0.01390913290659426</v>
       </c>
       <c r="T19">
-        <v>5.500053453866131E-05</v>
+        <v>0.01260988708142613</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,7 +1650,7 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>11.332808</v>
+        <v>10.1095025</v>
       </c>
       <c r="H20">
-        <v>22.665616</v>
+        <v>20.219005</v>
       </c>
       <c r="I20">
-        <v>0.1214015154896589</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J20">
-        <v>0.09931525558823628</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L20">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M20">
-        <v>4.9910045</v>
+        <v>0.06227666666666667</v>
       </c>
       <c r="N20">
-        <v>9.982009</v>
+        <v>0.18683</v>
       </c>
       <c r="O20">
-        <v>0.06097395438375338</v>
+        <v>0.001417853662187452</v>
       </c>
       <c r="P20">
-        <v>0.05192766076571049</v>
+        <v>0.002037870001215217</v>
       </c>
       <c r="Q20">
-        <v>56.562095725636</v>
+        <v>0.6295861173583334</v>
       </c>
       <c r="R20">
-        <v>226.248382902544</v>
+        <v>3.77751670415</v>
       </c>
       <c r="S20">
-        <v>0.007402330467584994</v>
+        <v>0.0002012149897434412</v>
       </c>
       <c r="T20">
-        <v>0.005157208901045767</v>
+        <v>0.0002736293825928059</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,7 +1712,7 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1721,46 +1721,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>11.332808</v>
+        <v>10.1095025</v>
       </c>
       <c r="H21">
-        <v>22.665616</v>
+        <v>20.219005</v>
       </c>
       <c r="I21">
-        <v>0.1214015154896589</v>
+        <v>0.1419152026119597</v>
       </c>
       <c r="J21">
-        <v>0.09931525558823628</v>
+        <v>0.1342722462324073</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M21">
-        <v>24.727721</v>
+        <v>0.01385433333333333</v>
       </c>
       <c r="N21">
-        <v>74.18316300000001</v>
+        <v>0.041563</v>
       </c>
       <c r="O21">
-        <v>0.3020928817572056</v>
+        <v>0.000315421783233405</v>
       </c>
       <c r="P21">
-        <v>0.3859101031457101</v>
+        <v>0.0004533532669298726</v>
       </c>
       <c r="Q21">
-        <v>280.234514370568</v>
+        <v>0.1400604174691667</v>
       </c>
       <c r="R21">
-        <v>1681.407086223408</v>
+        <v>0.8403625048150001</v>
       </c>
       <c r="S21">
-        <v>0.0366745336639631</v>
+        <v>4.476314627579429E-05</v>
       </c>
       <c r="T21">
-        <v>0.03832676052799882</v>
+        <v>6.087276148747412E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>33.754358</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H22">
-        <v>101.263074</v>
+        <v>1.586671</v>
       </c>
       <c r="I22">
-        <v>0.3615900150766246</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J22">
-        <v>0.4437103353361534</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K22">
         <v>2</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>48.3439545</v>
+        <v>35.785616</v>
       </c>
       <c r="N22">
-        <v>96.68790899999999</v>
+        <v>71.57123199999999</v>
       </c>
       <c r="O22">
-        <v>0.5906069762936997</v>
+        <v>0.8147315746812694</v>
       </c>
       <c r="P22">
-        <v>0.5029826098832294</v>
+        <v>0.7806715551186352</v>
       </c>
       <c r="Q22">
-        <v>1631.819147328711</v>
+        <v>18.92666637477867</v>
       </c>
       <c r="R22">
-        <v>9790.914883972264</v>
+        <v>113.559998248672</v>
       </c>
       <c r="S22">
-        <v>0.2135575854623986</v>
+        <v>0.006048940526925701</v>
       </c>
       <c r="T22">
-        <v>0.2231785824995413</v>
+        <v>0.00822586758488371</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>33.754358</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H23">
-        <v>101.263074</v>
+        <v>1.586671</v>
       </c>
       <c r="I23">
-        <v>0.3615900150766246</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J23">
-        <v>0.4437103353361534</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1869,22 +1869,22 @@
         <v>11.269592</v>
       </c>
       <c r="O23">
-        <v>0.04589267140722955</v>
+        <v>0.08552498147277421</v>
       </c>
       <c r="P23">
-        <v>0.05862582876292385</v>
+        <v>0.1229243882820479</v>
       </c>
       <c r="Q23">
-        <v>126.7992809606453</v>
+        <v>1.986792756470222</v>
       </c>
       <c r="R23">
-        <v>1141.193528645808</v>
+        <v>17.881134808232</v>
       </c>
       <c r="S23">
-        <v>0.01659433174604671</v>
+        <v>0.0006349766506810788</v>
       </c>
       <c r="T23">
-        <v>0.02601288613975685</v>
+        <v>0.001295243478939482</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,7 +1898,7 @@
         <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
         <v>3</v>
@@ -1907,46 +1907,46 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>33.754358</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H24">
-        <v>101.263074</v>
+        <v>1.586671</v>
       </c>
       <c r="I24">
-        <v>0.3615900150766246</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J24">
-        <v>0.4437103353361534</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M24">
-        <v>0.03548533333333333</v>
+        <v>4.30492</v>
       </c>
       <c r="N24">
-        <v>0.106456</v>
+        <v>8.60984</v>
       </c>
       <c r="O24">
-        <v>0.0004335161581118491</v>
+        <v>0.09801016840053531</v>
       </c>
       <c r="P24">
-        <v>0.0005537974424261163</v>
+        <v>0.09391283333117181</v>
       </c>
       <c r="Q24">
-        <v>1.197784645082667</v>
+        <v>2.276830573773334</v>
       </c>
       <c r="R24">
-        <v>10.780061805744</v>
+        <v>13.66098344264</v>
       </c>
       <c r="S24">
-        <v>0.0001567551141476239</v>
+        <v>0.0007276723992447969</v>
       </c>
       <c r="T24">
-        <v>0.0002457256488871962</v>
+        <v>0.0009895512734367233</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,7 +1960,7 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25">
         <v>3</v>
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>33.754358</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H25">
-        <v>101.263074</v>
+        <v>1.586671</v>
       </c>
       <c r="I25">
-        <v>0.3615900150766246</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J25">
-        <v>0.4437103353361534</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M25">
-        <v>4.9910045</v>
+        <v>0.06227666666666667</v>
       </c>
       <c r="N25">
-        <v>9.982009</v>
+        <v>0.18683</v>
       </c>
       <c r="O25">
-        <v>0.06097395438375338</v>
+        <v>0.001417853662187452</v>
       </c>
       <c r="P25">
-        <v>0.05192766076571049</v>
+        <v>0.002037870001215217</v>
       </c>
       <c r="Q25">
-        <v>168.468152672611</v>
+        <v>0.03293752699222222</v>
       </c>
       <c r="R25">
-        <v>1010.808916035666</v>
+        <v>0.29643774293</v>
       </c>
       <c r="S25">
-        <v>0.02204757308490281</v>
+        <v>1.052679525991233E-05</v>
       </c>
       <c r="T25">
-        <v>0.02304083977157542</v>
+        <v>2.147285715137366E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,7 +2022,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E26">
         <v>3</v>
@@ -2031,46 +2031,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.754358</v>
+        <v>0.5288903333333334</v>
       </c>
       <c r="H26">
-        <v>101.263074</v>
+        <v>1.586671</v>
       </c>
       <c r="I26">
-        <v>0.3615900150766246</v>
+        <v>0.007424458207958987</v>
       </c>
       <c r="J26">
-        <v>0.4437103353361534</v>
+        <v>0.01053691213795238</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M26">
-        <v>24.727721</v>
+        <v>0.01385433333333333</v>
       </c>
       <c r="N26">
-        <v>74.18316300000001</v>
+        <v>0.041563</v>
       </c>
       <c r="O26">
-        <v>0.3020928817572056</v>
+        <v>0.000315421783233405</v>
       </c>
       <c r="P26">
-        <v>0.3859101031457101</v>
+        <v>0.0004533532669298726</v>
       </c>
       <c r="Q26">
-        <v>834.668347158118</v>
+        <v>0.007327422974777779</v>
       </c>
       <c r="R26">
-        <v>7512.015124423062</v>
+        <v>0.06594680677300001</v>
       </c>
       <c r="S26">
-        <v>0.1092337696691289</v>
+        <v>2.341835847496314E-06</v>
       </c>
       <c r="T26">
-        <v>0.1712323012763926</v>
+        <v>4.776943541093741E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.535784</v>
+        <v>0.4370873333333334</v>
       </c>
       <c r="H27">
-        <v>1.607352</v>
+        <v>1.311262</v>
       </c>
       <c r="I27">
-        <v>0.00573952983012784</v>
+        <v>0.006135745796503949</v>
       </c>
       <c r="J27">
-        <v>0.007043028290087628</v>
+        <v>0.008707950472300633</v>
       </c>
       <c r="K27">
         <v>2</v>
@@ -2111,28 +2111,28 @@
         <v>1</v>
       </c>
       <c r="M27">
-        <v>48.3439545</v>
+        <v>35.785616</v>
       </c>
       <c r="N27">
-        <v>96.68790899999999</v>
+        <v>71.57123199999999</v>
       </c>
       <c r="O27">
-        <v>0.5906069762936997</v>
+        <v>0.8147315746812694</v>
       </c>
       <c r="P27">
-        <v>0.5029826098832294</v>
+        <v>0.7806715551186352</v>
       </c>
       <c r="Q27">
-        <v>25.901917317828</v>
+        <v>15.64143946913067</v>
       </c>
       <c r="R27">
-        <v>155.411503906968</v>
+        <v>93.848636814784</v>
       </c>
       <c r="S27">
-        <v>0.003389806358319296</v>
+        <v>0.004998985834629642</v>
       </c>
       <c r="T27">
-        <v>0.003542520750829694</v>
+        <v>0.006798049237106989</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.535784</v>
+        <v>0.4370873333333334</v>
       </c>
       <c r="H28">
-        <v>1.607352</v>
+        <v>1.311262</v>
       </c>
       <c r="I28">
-        <v>0.00573952983012784</v>
+        <v>0.006135745796503949</v>
       </c>
       <c r="J28">
-        <v>0.007043028290087628</v>
+        <v>0.008707950472300633</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2179,22 +2179,22 @@
         <v>11.269592</v>
       </c>
       <c r="O28">
-        <v>0.04589267140722955</v>
+        <v>0.08552498147277421</v>
       </c>
       <c r="P28">
-        <v>0.05862582876292385</v>
+        <v>0.1229243882820479</v>
       </c>
       <c r="Q28">
-        <v>2.012689026709333</v>
+        <v>1.641931971678222</v>
       </c>
       <c r="R28">
-        <v>18.114201240384</v>
+        <v>14.777387745104</v>
       </c>
       <c r="S28">
-        <v>0.000263402356526049</v>
+        <v>0.0005247595455676525</v>
       </c>
       <c r="T28">
-        <v>0.0004129033705071057</v>
+        <v>0.001070419484997925</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2208,7 +2208,7 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E29">
         <v>3</v>
@@ -2217,46 +2217,46 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.535784</v>
+        <v>0.4370873333333334</v>
       </c>
       <c r="H29">
-        <v>1.607352</v>
+        <v>1.311262</v>
       </c>
       <c r="I29">
-        <v>0.00573952983012784</v>
+        <v>0.006135745796503949</v>
       </c>
       <c r="J29">
-        <v>0.007043028290087628</v>
+        <v>0.008707950472300633</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L29">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M29">
-        <v>0.03548533333333333</v>
+        <v>4.30492</v>
       </c>
       <c r="N29">
-        <v>0.106456</v>
+        <v>8.60984</v>
       </c>
       <c r="O29">
-        <v>0.0004335161581118491</v>
+        <v>0.09801016840053531</v>
       </c>
       <c r="P29">
-        <v>0.0005537974424261163</v>
+        <v>0.09391283333117181</v>
       </c>
       <c r="Q29">
-        <v>0.01901247383466667</v>
+        <v>1.881626003013334</v>
       </c>
       <c r="R29">
-        <v>0.171112264512</v>
+        <v>11.28975601808</v>
       </c>
       <c r="S29">
-        <v>2.488178921325375E-06</v>
+        <v>0.0006013654787782287</v>
       </c>
       <c r="T29">
-        <v>3.900411053985312E-06</v>
+        <v>0.0008177883013612683</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2270,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>3</v>
@@ -2279,46 +2279,46 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.535784</v>
+        <v>0.4370873333333334</v>
       </c>
       <c r="H30">
-        <v>1.607352</v>
+        <v>1.311262</v>
       </c>
       <c r="I30">
-        <v>0.00573952983012784</v>
+        <v>0.006135745796503949</v>
       </c>
       <c r="J30">
-        <v>0.007043028290087628</v>
+        <v>0.008707950472300633</v>
       </c>
       <c r="K30">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M30">
-        <v>4.9910045</v>
+        <v>0.06227666666666667</v>
       </c>
       <c r="N30">
-        <v>9.982009</v>
+        <v>0.18683</v>
       </c>
       <c r="O30">
-        <v>0.06097395438375338</v>
+        <v>0.001417853662187452</v>
       </c>
       <c r="P30">
-        <v>0.05192766076571049</v>
+        <v>0.002037870001215217</v>
       </c>
       <c r="Q30">
-        <v>2.674100355028</v>
+        <v>0.02722034216222223</v>
       </c>
       <c r="R30">
-        <v>16.044602130168</v>
+        <v>0.24498307946</v>
       </c>
       <c r="S30">
-        <v>0.0003499618300464067</v>
+        <v>8.699589647824387E-06</v>
       </c>
       <c r="T30">
-        <v>0.0003657279838109723</v>
+        <v>1.774567103956934E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2332,7 +2332,7 @@
         <v>27</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2341,46 +2341,46 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.535784</v>
+        <v>0.4370873333333334</v>
       </c>
       <c r="H31">
-        <v>1.607352</v>
+        <v>1.311262</v>
       </c>
       <c r="I31">
-        <v>0.00573952983012784</v>
+        <v>0.006135745796503949</v>
       </c>
       <c r="J31">
-        <v>0.007043028290087628</v>
+        <v>0.008707950472300633</v>
       </c>
       <c r="K31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M31">
-        <v>24.727721</v>
+        <v>0.01385433333333333</v>
       </c>
       <c r="N31">
-        <v>74.18316300000001</v>
+        <v>0.041563</v>
       </c>
       <c r="O31">
-        <v>0.3020928817572056</v>
+        <v>0.000315421783233405</v>
       </c>
       <c r="P31">
-        <v>0.3859101031457101</v>
+        <v>0.0004533532669298726</v>
       </c>
       <c r="Q31">
-        <v>13.248717268264</v>
+        <v>0.006055553611777779</v>
       </c>
       <c r="R31">
-        <v>119.238455414376</v>
+        <v>0.05449998250600001</v>
       </c>
       <c r="S31">
-        <v>0.001733871106314764</v>
+        <v>1.935347880600144E-06</v>
       </c>
       <c r="T31">
-        <v>0.00271797577388587</v>
+        <v>3.947777794881019E-06</v>
       </c>
     </row>
   </sheetData>
